--- a/03_Outputs/all/04_Cluster/Summary_Stats.xlsx
+++ b/03_Outputs/all/04_Cluster/Summary_Stats.xlsx
@@ -406,19 +406,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>-4.263256414560601E-17</v>
+        <v>-1.009293658750142E-17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F2">
-        <v>-8.736590198195003</v>
+        <v>-2.425997880485935</v>
       </c>
       <c r="G2">
-        <v>0.570076350306586</v>
+        <v>1.192267133162733</v>
       </c>
     </row>
     <row r="3">
@@ -433,19 +433,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>-4.551914400963142E-17</v>
+        <v>-1.312081756375185E-16</v>
       </c>
       <c r="E3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F3">
-        <v>-1.79314253114921</v>
+        <v>-1.464746934498695</v>
       </c>
       <c r="G3">
-        <v>3.27492217455772</v>
+        <v>2.516330631057625</v>
       </c>
     </row>
     <row r="4">
@@ -460,19 +460,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>4.440892098500627E-18</v>
+        <v>1.816728585750256E-16</v>
       </c>
       <c r="E4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F4">
-        <v>-2.568004782381656</v>
+        <v>-1.885484094023963</v>
       </c>
       <c r="G4">
-        <v>2.338950246282719</v>
+        <v>1.671610470368253</v>
       </c>
     </row>
     <row r="5">
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>-3.708144902248023E-17</v>
+        <v>-2.119516683375299E-16</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5">
-        <v>-2.676226615379074</v>
+        <v>-2.245325559812697</v>
       </c>
       <c r="G5">
-        <v>2.989090349946454</v>
+        <v>2.088354401300649</v>
       </c>
     </row>
     <row r="6">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>-1.083577672034153E-16</v>
+        <v>7.569702440626068E-17</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F6">
-        <v>-3.377657438923357</v>
+        <v>-1.429764574405501</v>
       </c>
       <c r="G6">
-        <v>2.718449139215524</v>
+        <v>2.375705545758349</v>
       </c>
     </row>
     <row r="7">
@@ -541,19 +541,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>8.171241461241152E-17</v>
+        <v>6.055761952500853E-17</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>-3.249702474870532</v>
+        <v>-1.901699202863841</v>
       </c>
       <c r="G7">
-        <v>2.80318936990205</v>
+        <v>2.171385795354605</v>
       </c>
     </row>
     <row r="8">
@@ -568,19 +568,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>-4.246603069191224E-17</v>
+        <v>3.532527805625498E-17</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F8">
-        <v>-3.47062216708017</v>
+        <v>-1.614588356844653</v>
       </c>
       <c r="G8">
-        <v>4.171809563477858</v>
+        <v>2.931052031813679</v>
       </c>
     </row>
     <row r="9">
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>1.865174681370263E-17</v>
+        <v>1.025063872168113E-17</v>
       </c>
       <c r="E9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>-1.335422301040694</v>
+        <v>-0.5109403817858122</v>
       </c>
       <c r="G9">
-        <v>10.15602168524787</v>
+        <v>4.415060871745471</v>
       </c>
     </row>
     <row r="10">
@@ -622,19 +622,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>4.618527782440652E-17</v>
+        <v>5.096932976688219E-16</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>-4.216579492924281</v>
+        <v>-2.299034376137603</v>
       </c>
       <c r="G10">
-        <v>1.415016166418096</v>
+        <v>1.954527599536878</v>
       </c>
     </row>
     <row r="11">
@@ -649,19 +649,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>-6.750155989720952E-17</v>
+        <v>-1.91765795162527E-16</v>
       </c>
       <c r="E11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>-2.687799830217598</v>
+        <v>-1.656799540306184</v>
       </c>
       <c r="G11">
-        <v>3.149438304257335</v>
+        <v>1.532466053843609</v>
       </c>
     </row>
     <row r="12">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>-3.730349362740526E-17</v>
+        <v>2.018587317500285E-16</v>
       </c>
       <c r="E12">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>-1.956045892917401</v>
+        <v>-1.248259406014539</v>
       </c>
       <c r="G12">
-        <v>3.968159639475089</v>
+        <v>2.329263374587369</v>
       </c>
     </row>
     <row r="13">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>2.797762022055395E-17</v>
+        <v>1.009293658750142E-16</v>
       </c>
       <c r="E13">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>-2.529225657869897</v>
+        <v>-1.619918890964007</v>
       </c>
       <c r="G13">
-        <v>3.361539269928816</v>
+        <v>1.852831475537608</v>
       </c>
     </row>
     <row r="14">
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>-1.465494392505207E-17</v>
+        <v>2.119516683375299E-16</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F14">
-        <v>-1.852270485811725</v>
+        <v>-2.2190116646</v>
       </c>
       <c r="G14">
-        <v>5.872051834822624</v>
+        <v>1.322996042481685</v>
       </c>
     </row>
     <row r="15">
@@ -757,19 +757,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>-2.486899575160351E-17</v>
+        <v>-4.415659757031872E-17</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>-1.766259700036685</v>
+        <v>-1.570485058396011</v>
       </c>
       <c r="G15">
-        <v>3.080547887796542</v>
+        <v>1.529252408826315</v>
       </c>
     </row>
     <row r="16">
@@ -784,19 +784,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>-2.131628207280301E-17</v>
+        <v>1.614869854000228E-16</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>-3.483999295952195</v>
+        <v>-2.569433624248875</v>
       </c>
       <c r="G16">
-        <v>2.346393885941261</v>
+        <v>1.63495048407373</v>
       </c>
     </row>
     <row r="17">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>2.309263891220326E-17</v>
+        <v>-2.018587317500285E-17</v>
       </c>
       <c r="E17">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>-2.456126084318659</v>
+        <v>-1.546502805907696</v>
       </c>
       <c r="G17">
-        <v>4.665311989065714</v>
+        <v>2.319453847263542</v>
       </c>
     </row>
     <row r="18">
@@ -838,19 +838,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>8.260059303211165E-17</v>
+        <v>-2.018587317500284E-16</v>
       </c>
       <c r="E18">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>-2.799084063162949</v>
+        <v>-2.538484034943318</v>
       </c>
       <c r="G18">
-        <v>2.912519396315919</v>
+        <v>1.310343375486137</v>
       </c>
     </row>
     <row r="19">
@@ -865,19 +865,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>3.330669073875469E-17</v>
+        <v>-5.046468293750711E-17</v>
       </c>
       <c r="E19">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>-5.091141056562348</v>
+        <v>-2.427059471236581</v>
       </c>
       <c r="G19">
-        <v>2.506776490831638</v>
+        <v>1.568984861916797</v>
       </c>
     </row>
     <row r="20">
@@ -892,19 +892,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>3.552713678800501E-18</v>
+        <v>2.523234146875356E-17</v>
       </c>
       <c r="E20">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>-3.53749257433838</v>
+        <v>-2.269908414444483</v>
       </c>
       <c r="G20">
-        <v>2.78196434428297</v>
+        <v>1.515216881226998</v>
       </c>
     </row>
     <row r="21">
@@ -919,19 +919,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>1.4210854715202E-17</v>
+        <v>3.633457171500513E-16</v>
       </c>
       <c r="E21">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>-3.812198855986543</v>
+        <v>-1.738285918071531</v>
       </c>
       <c r="G21">
-        <v>2.827916595898227</v>
+        <v>2.07396025737248</v>
       </c>
     </row>
     <row r="22">
@@ -946,19 +946,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>1.4210854715202E-17</v>
+        <v>-9.08364292875128E-17</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>-4.054776522940765</v>
+        <v>-1.923543425410126</v>
       </c>
       <c r="G22">
-        <v>2.176683680679193</v>
+        <v>2.039363534721254</v>
       </c>
     </row>
     <row r="23">
@@ -973,19 +973,19 @@
         </is>
       </c>
       <c r="C23">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7.569702440626067E-17</v>
       </c>
       <c r="E23">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>-2.358897378628837</v>
+        <v>-1.869447815147661</v>
       </c>
       <c r="G23">
-        <v>2.861245578118104</v>
+        <v>1.856349357734679</v>
       </c>
     </row>
     <row r="24">
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="C24">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>4.973799150320701E-17</v>
+        <v>7.065055611250996E-17</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>-3.378910429378913</v>
+        <v>-3.053747979702225</v>
       </c>
       <c r="G24">
-        <v>2.810856373638918</v>
+        <v>1.743187725338075</v>
       </c>
     </row>
     <row r="25">
@@ -1027,19 +1027,19 @@
         </is>
       </c>
       <c r="C25">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>2.486899575160351E-17</v>
+        <v>-4.440892098500626E-16</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>-2.961308580693609</v>
+        <v>-1.363683774832632</v>
       </c>
       <c r="G25">
-        <v>1.856993223569489</v>
+        <v>1.918854911631257</v>
       </c>
     </row>
     <row r="26">
@@ -1054,19 +1054,19 @@
         </is>
       </c>
       <c r="C26">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>7.105427357601002E-18</v>
+        <v>3.027880976250427E-17</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>-2.054611080772094</v>
+        <v>-2.064829789047005</v>
       </c>
       <c r="G26">
-        <v>2.460948688602503</v>
+        <v>1.624233134082798</v>
       </c>
     </row>
     <row r="27">
@@ -1081,19 +1081,19 @@
         </is>
       </c>
       <c r="C27">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>5.684341886080802E-17</v>
+        <v>-7.998652245594878E-16</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F27">
-        <v>-5.536870042191998</v>
+        <v>-1.437006464188384</v>
       </c>
       <c r="G27">
-        <v>0.6742770223226824</v>
+        <v>2.361291707510999</v>
       </c>
     </row>
     <row r="28">
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="C28">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>-8.881784197001253E-18</v>
+        <v>-2.018587317500285E-17</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>-3.895667876609284</v>
+        <v>-1.013447046560743</v>
       </c>
       <c r="G28">
-        <v>3.473744060831262</v>
+        <v>2.267492478119101</v>
       </c>
     </row>
     <row r="29">
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="C29">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>-4.218847493575595E-17</v>
+        <v>1.211152390500171E-16</v>
       </c>
       <c r="E29">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F29">
-        <v>-1.898345467200466</v>
+        <v>-1.448603358368944</v>
       </c>
       <c r="G29">
-        <v>3.402298193851277</v>
+        <v>2.174284104802546</v>
       </c>
     </row>
     <row r="30">
@@ -1162,19 +1162,19 @@
         </is>
       </c>
       <c r="C30">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>7.216449660063517E-17</v>
+        <v>6.055761952500853E-17</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F30">
-        <v>-3.607037124529915</v>
+        <v>-1.813834765996074</v>
       </c>
       <c r="G30">
-        <v>2.347056830336199</v>
+        <v>3.200105174907554</v>
       </c>
     </row>
     <row r="31">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C31">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>-7.105427357601002E-18</v>
+        <v>-3.027880976250427E-16</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>-3.955385643442786</v>
+        <v>-1.653423711067368</v>
       </c>
       <c r="G31">
-        <v>1.525145077839006</v>
+        <v>1.745058586135704</v>
       </c>
     </row>
     <row r="32">
@@ -1216,19 +1216,19 @@
         </is>
       </c>
       <c r="C32">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>-5.151434834260726E-17</v>
+        <v>8.578996099376209E-17</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F32">
-        <v>-1.590213221935761</v>
+        <v>-1.450547055695796</v>
       </c>
       <c r="G32">
-        <v>3.056942539512557</v>
+        <v>2.066485962284576</v>
       </c>
     </row>
     <row r="33">
@@ -1243,19 +1243,19 @@
         </is>
       </c>
       <c r="C33">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>1.06581410364015E-17</v>
+        <v>8.074349270001139E-17</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>-2.522157065559848</v>
+        <v>-1.834671361908434</v>
       </c>
       <c r="G33">
-        <v>1.770429977299429</v>
+        <v>1.96036784281024</v>
       </c>
     </row>
   </sheetData>
